--- a/biology/Zoologie/Hemipus/Hemipus.xlsx
+++ b/biology/Zoologie/Hemipus/Hemipus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemipus est un genre de passereaux de la famille des Vangidae. Il regroupe deux espèces d'échenilleurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Asie du Sud[2], du Sud-Est[2],[3] et dans le Sud de la Chine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Asie du Sud, du Sud-Est, et dans le Sud de la Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Hemipus hirundinaceus (Temminck, 1822) — Échenilleur véloce, Hémipe véloce
 Hemipus picatus (Sykes, 1832) — Échenilleur gobemouche, Échenilleur pie, Hémipe gobemouche
 Hemipus picatus capitalis (Horsfield, 1840)
@@ -578,9 +594,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre appartenait auparavant à l'ancienne famille des Tephrodornithidae. En 2018, le congrès ornithologique international a décidé de le rattacher à la famille des Vangidae et de supprimer la famille des Tephrodornithidae[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre appartenait auparavant à l'ancienne famille des Tephrodornithidae. En 2018, le congrès ornithologique international a décidé de le rattacher à la famille des Vangidae et de supprimer la famille des Tephrodornithidae.
 </t>
         </is>
       </c>
